--- a/output/table1diamonds.xlsx
+++ b/output/table1diamonds.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Overall</t>
   </si>
@@ -50,79 +50,91 @@
     <t>price (mean (SD))</t>
   </si>
   <si>
-    <t xml:space="preserve">    150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      3 ( 2.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     16 (10.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     38 (25.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     41 (27.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     52 (34.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.82 (0.53)</t>
-  </si>
-  <si>
-    <t>4202.76 (4467.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      2 ( 2.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      5 ( 6.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     18 (25.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     23 (31.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     24 (33.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.95 (0.57)</t>
-  </si>
-  <si>
-    <t>4825.92 (4825.38)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      1 ( 1.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     11 (14.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     20 (25.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     18 (23.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     28 (35.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.71 (0.46)</t>
-  </si>
-  <si>
-    <t>3627.54 (4055.41)</t>
+    <t>x (mean (SD))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  53940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1610 ( 3.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4906 ( 9.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12082 (22.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13791 (25.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21551 (40.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.80 (0.47)</t>
+  </si>
+  <si>
+    <t>3932.80 (3989.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.73 (1.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  27826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    911 ( 3.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2402 ( 8.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6005 (21.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7520 (27.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10988 (39.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.90 (0.53)</t>
+  </si>
+  <si>
+    <t>4491.23 (4305.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.96 (1.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  26114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    699 ( 2.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2504 ( 9.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6077 (23.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6271 (24.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10563 (40.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.69 (0.38)</t>
+  </si>
+  <si>
+    <t>3337.76 (3527.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.49 (0.98)</t>
   </si>
 </sst>
 </file>
@@ -190,13 +202,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -204,13 +216,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -218,13 +230,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -232,13 +244,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -246,13 +258,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -260,13 +272,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -274,13 +286,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -288,13 +300,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -302,13 +314,27 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/output/table1diamonds.xlsx
+++ b/output/table1diamonds.xlsx
@@ -56,73 +56,73 @@
     <t xml:space="preserve">     </t>
   </si>
   <si>
-    <t xml:space="preserve">      3 ( 2.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     16 (10.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     38 (25.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     41 (27.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     52 (34.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.82 (0.53)</t>
-  </si>
-  <si>
-    <t>4202.76 (4467.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      2 ( 2.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      5 ( 6.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     18 (25.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     23 (31.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     24 (33.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.95 (0.57)</t>
-  </si>
-  <si>
-    <t>4825.92 (4825.38)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      1 ( 1.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     11 (14.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     20 (25.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     18 (23.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     28 (35.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.71 (0.46)</t>
-  </si>
-  <si>
-    <t>3627.54 (4055.41)</t>
+    <t xml:space="preserve">      4 ( 2.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     15 (10.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     33 (22.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     29 (19.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     69 (46.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.82 (0.54)</t>
+  </si>
+  <si>
+    <t>4356.75 (4876.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2 ( 2.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      6 ( 7.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     17 (21.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     14 (17.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     42 (51.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.89 (0.59)</t>
+  </si>
+  <si>
+    <t>4557.68 (4972.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2 ( 2.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      9 (13.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     16 (23.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     15 (21.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     27 (39.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.75 (0.48)</t>
+  </si>
+  <si>
+    <t>4120.88 (4785.65)</t>
   </si>
 </sst>
 </file>

--- a/output/table1diamonds.xlsx
+++ b/output/table1diamonds.xlsx
@@ -56,73 +56,73 @@
     <t xml:space="preserve">     </t>
   </si>
   <si>
-    <t xml:space="preserve">      4 ( 2.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     15 (10.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     33 (22.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     29 (19.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     69 (46.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.82 (0.54)</t>
-  </si>
-  <si>
-    <t>4356.75 (4876.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      2 ( 2.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      6 ( 7.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     17 (21.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     14 (17.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     42 (51.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.89 (0.59)</t>
-  </si>
-  <si>
-    <t>4557.68 (4972.55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      2 ( 2.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      9 (13.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     16 (23.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     15 (21.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     27 (39.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.75 (0.48)</t>
-  </si>
-  <si>
-    <t>4120.88 (4785.65)</t>
+    <t xml:space="preserve">      3 ( 2.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     16 (10.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     38 (25.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     41 (27.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     52 (34.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.82 (0.53)</t>
+  </si>
+  <si>
+    <t>4202.76 (4467.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2 ( 2.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      5 ( 6.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     18 (25.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     23 (31.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     24 (33.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.95 (0.57)</t>
+  </si>
+  <si>
+    <t>4825.92 (4825.38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1 ( 1.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     11 (14.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     20 (25.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     18 (23.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     28 (35.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.71 (0.46)</t>
+  </si>
+  <si>
+    <t>3627.54 (4055.41)</t>
   </si>
 </sst>
 </file>
